--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kal-el\Desktop\env\athena\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB09C8A-38D2-4D92-94FA-0C93DCFA8E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB8306-551A-4597-B415-879A6F999619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{A3A86600-4F42-4C48-A25B-7D6D4D9DB028}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -114,10 +114,7 @@
     <t>C:\\Users\\Kal-el\\Desktop\\Reinforced Cement Concrete 17.docx</t>
   </si>
   <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
-    <t>PDF1</t>
+    <t>PDF</t>
   </si>
 </sst>
 </file>
@@ -495,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D6B18-42AB-4E42-9BE8-EE71AD09E159}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,9 +522,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -608,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
